--- a/EduAnalysisTool/input_tool/edu_table_helper_FR_CAR.xlsx
+++ b/EduAnalysisTool/input_tool/edu_table_helper_FR_CAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNA_2024_EduAnalysis/EduAnalysisTool/input_tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:1_{12BE1669-350D-4A48-9691-8F4FC8C1B4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{117CE182-79E1-44CB-9928-B92738D5D113}"/>
+  <xr:revisionPtr revIDLastSave="157" documentId="13_ncr:1_{12BE1669-350D-4A48-9691-8F4FC8C1B4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01CD7863-E163-4EAD-A9B9-7AEB604A862E}"/>
   <bookViews>
-    <workbookView xWindow="-19290" yWindow="-3720" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
+    <workbookView xWindow="9510" yWindow="-4225" windowWidth="19380" windowHeight="11460" firstSheet="2" activeTab="8" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
   </bookViews>
   <sheets>
     <sheet name="access" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="57">
   <si>
     <t>tab</t>
   </si>
@@ -94,12 +94,6 @@
     <t>Profil de fréquentation scolaire</t>
   </si>
   <si>
-    <t>% d'enfants en âge de fréquenter l'école primaire ou plus</t>
-  </si>
-  <si>
-    <t>% d'enfants avec 2 ans de plus que l'âge prévu : primaire</t>
-  </si>
-  <si>
     <t>Ensemble</t>
   </si>
   <si>
@@ -109,12 +103,6 @@
     <t>% d'enfants un an avant l'âge d'entrée à l'école primaire fréquentant l'école primaire</t>
   </si>
   <si>
-    <t>% d'enfants en âge de niveau intermédiaire actuellement scolarisés au niveau intermédiaire ou plus</t>
-  </si>
-  <si>
-    <t>% d'enfants avec 2 ans de plus que l'âge prévu : secondaire</t>
-  </si>
-  <si>
     <t>% d'enfants en âge de secondaire actuellement scolarisés au secondaire ou plus</t>
   </si>
   <si>
@@ -166,9 +154,6 @@
     <t>% d'enfants en âge scolaire dont l'école a été occupée par des déplacés</t>
   </si>
   <si>
-    <t>% d'enfants d'âge scolaire dont l'éducation a été interrompue par l'occupation de l'école par les forces armées</t>
-  </si>
-  <si>
     <t>non_formal</t>
   </si>
   <si>
@@ -181,71 +166,62 @@
     <t>Non-formel</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>H3.4. Incidents de protection sur le trajet de l'école</t>
-  </si>
-  <si>
-    <t>H3.5. Incidents de protection au sein de l'école</t>
-  </si>
-  <si>
     <t>Cours d'alphabétisation</t>
   </si>
   <si>
-    <t>Cours Stratégie de Scolarisation Accélérée par Passerelles</t>
-  </si>
-  <si>
-    <t>Cours de rattrapage</t>
-  </si>
-  <si>
-    <t>Formation technique et d'apprentissage des jeunes</t>
-  </si>
-  <si>
-    <t>Enseignement coranique</t>
-  </si>
-  <si>
-    <t>Cours à la télévision</t>
-  </si>
-  <si>
-    <t>Autre - précisez</t>
-  </si>
-  <si>
-    <t>Ne sait pas</t>
-  </si>
-  <si>
-    <t>Préfère ne pas répondre</t>
-  </si>
-  <si>
-    <t>% d'enfants accédant à l'éducation en dehors des écoles formelles</t>
-  </si>
-  <si>
-    <t>type_radio</t>
-  </si>
-  <si>
-    <t>Manque d'intérêt / L'éducation n'est pas une priorité pour l'enfant ou le ménage</t>
-  </si>
-  <si>
     <t>Impossibilité de payer les coûts directs de l'éducation</t>
   </si>
   <si>
-    <t>Le handicap ou les problèmes de santé de l'enfant l'empêchent d'aller à l'école</t>
-  </si>
-  <si>
-    <t>Mariage, fiançailles et/ou grossesse</t>
-  </si>
-  <si>
-    <t>% d'enfants d'âge scolaire fréquentant l'enseignement fondamental 1 qui ont au moins deux ans de plus que l'âge prévu pour leur classe</t>
-  </si>
-  <si>
-    <t>% d'enfants d'âge scolaire fréquentant l'enseignement fondamental 2 qui ont au moins deux ans de plus que l'âge prévu pour leur classe</t>
+    <t>% d'enfants en âge scolaire dont l'éducation a été perturbée par des attaques directes contre l'éducation</t>
+  </si>
+  <si>
+    <t>% d'enfants avec 2 ans de plus que l'âge prévu : Enseignement fondamental1</t>
+  </si>
+  <si>
+    <t>% d'enfants avec 2 ans de plus que l'âge prévu : Enseignement fondamental2</t>
+  </si>
+  <si>
+    <t>% d'enfants avec 2 ans de plus que l'âge prévu : enseignement Secondaire</t>
+  </si>
+  <si>
+    <t>L'enfant est trop jeune</t>
+  </si>
+  <si>
+    <t>Absence d'école appropriée et accessible</t>
+  </si>
+  <si>
+    <t>Manque d'intérêt pour l'éducation formelle</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>% d'enfants en âge de fréquenter l'enseignement fondamental1 ou plus</t>
+  </si>
+  <si>
+    <t>% d'enfants en âge de fréquenter l'enseignement fondamental2 ou plus</t>
+  </si>
+  <si>
+    <t>Autre, préciser</t>
+  </si>
+  <si>
+    <t>Centre de formation aux métiers</t>
+  </si>
+  <si>
+    <t>Ecole communautaire, non reconnue officielllement</t>
+  </si>
+  <si>
+    <t>CRS, centre de rattrapage scolaire</t>
+  </si>
+  <si>
+    <t>% d'enfants accédant à l'éducation en dehors des écoles formelles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +266,25 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -305,11 +300,24 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD3D3D3"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -318,22 +326,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0B085A-F222-4D02-94C7-458C197FFE9F}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,10 +718,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -725,39 +733,35 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G5" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G5" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G7" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="G7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -766,9 +770,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08680CC-21CB-4C65-AC6D-F24FF5598654}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -781,7 +785,7 @@
     <col min="6" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -804,15 +808,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -821,27 +825,37 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -850,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39444B71-EEA9-4171-A7FB-692AC9A3C4DA}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,10 +901,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -901,35 +915,35 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>61</v>
+      <c r="G2" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>62</v>
+        <v>29</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G5" s="6" t="s">
-        <v>59</v>
+      <c r="G5" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G6" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -942,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675A8981-F8A2-408A-9A14-DF2744D820F7}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,10 +996,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -997,20 +1011,20 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1020,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A578C6AC-945F-43C7-88F6-0991BAC5AA47}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,7 +1048,7 @@
     <col min="6" max="6" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1057,15 +1071,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -1076,34 +1090,40 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB6243-7252-47E5-AC13-C1BFCCE2E7EE}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1134,7 @@
     <col min="6" max="6" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1137,15 +1157,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -1156,34 +1176,40 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B3E788-8021-4125-8D0E-F28A9B53C11D}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,7 +1220,7 @@
     <col min="6" max="6" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1217,15 +1243,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -1236,21 +1262,28 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G3:H3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1299,10 +1332,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -1314,17 +1347,17 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1336,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED73BA0E-38EE-41B8-83FA-DAF0AFDC06D8}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,86 +1403,99 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G5" s="2" t="s">
-        <v>51</v>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G7" s="2" t="s">
-        <v>52</v>
+      <c r="G6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G8" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G9" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G10" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G11" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="G11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5940141-1bc9-4c17-b1bc-e50f6b2083d6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C9824523CAB29F4DA646F20BAFE41B4C" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d01f98d4b7c3ae4dbfef503d5398481d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5940141-1bc9-4c17-b1bc-e50f6b2083d6" xmlns:ns3="14cbb838-50ff-4dab-9c3f-cddf75f03c13" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f0453f2b21cedf67e6d4b1cf481923a1" ns2:_="" ns3:_="">
     <xsd:import namespace="b5940141-1bc9-4c17-b1bc-e50f6b2083d6"/>
@@ -1660,26 +1706,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73A5FEB2-F552-4DAC-A2B2-DE6F0F15D48E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b5940141-1bc9-4c17-b1bc-e50f6b2083d6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5940141-1bc9-4c17-b1bc-e50f6b2083d6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8B0F1D4-83D4-47C4-A721-A02A8C53394D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86C682FE-3A4D-40FC-BD6B-0145611608A6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1696,22 +1741,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8B0F1D4-83D4-47C4-A721-A02A8C53394D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73A5FEB2-F552-4DAC-A2B2-DE6F0F15D48E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b5940141-1bc9-4c17-b1bc-e50f6b2083d6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>